--- a/dts_adc_ADC_count.xlsx
+++ b/dts_adc_ADC_count.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="2">
   <si>
     <t>Temperature</t>
   </si>
@@ -87,7 +87,7 @@
         <v>-45</v>
       </c>
       <c r="B2" s="0">
-        <v>17577</v>
+        <v>18104</v>
       </c>
     </row>
     <row r="3">
@@ -95,7 +95,7 @@
         <v>-40</v>
       </c>
       <c r="B3" s="0">
-        <v>17969</v>
+        <v>18491</v>
       </c>
     </row>
     <row r="4">
@@ -103,7 +103,7 @@
         <v>-35</v>
       </c>
       <c r="B4" s="0">
-        <v>18358</v>
+        <v>18884</v>
       </c>
     </row>
     <row r="5">
@@ -111,7 +111,7 @@
         <v>-30</v>
       </c>
       <c r="B5" s="0">
-        <v>18748</v>
+        <v>19275</v>
       </c>
     </row>
     <row r="6">
@@ -119,7 +119,7 @@
         <v>-25</v>
       </c>
       <c r="B6" s="0">
-        <v>19149</v>
+        <v>19668</v>
       </c>
     </row>
     <row r="7">
@@ -127,7 +127,7 @@
         <v>-20</v>
       </c>
       <c r="B7" s="0">
-        <v>19536</v>
+        <v>20059</v>
       </c>
     </row>
     <row r="8">
@@ -135,7 +135,7 @@
         <v>-15</v>
       </c>
       <c r="B8" s="0">
-        <v>19928</v>
+        <v>20441</v>
       </c>
     </row>
     <row r="9">
@@ -143,7 +143,7 @@
         <v>-10</v>
       </c>
       <c r="B9" s="0">
-        <v>20356</v>
+        <v>20879</v>
       </c>
     </row>
     <row r="10">
@@ -151,7 +151,7 @@
         <v>-5</v>
       </c>
       <c r="B10" s="0">
-        <v>20741</v>
+        <v>21252</v>
       </c>
     </row>
     <row r="11">
@@ -159,7 +159,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="0">
-        <v>21120</v>
+        <v>21635</v>
       </c>
     </row>
     <row r="12">
@@ -167,7 +167,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0">
-        <v>21558</v>
+        <v>22073</v>
       </c>
     </row>
     <row r="13">
@@ -175,7 +175,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="0">
-        <v>21955</v>
+        <v>22462</v>
       </c>
     </row>
     <row r="14">
@@ -183,7 +183,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="0">
-        <v>22358</v>
+        <v>22878</v>
       </c>
     </row>
     <row r="15">
@@ -191,7 +191,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="0">
-        <v>22755</v>
+        <v>23270</v>
       </c>
     </row>
     <row r="16">
@@ -199,7 +199,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="0">
-        <v>23172</v>
+        <v>23674</v>
       </c>
     </row>
     <row r="17">
@@ -207,7 +207,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="0">
-        <v>23555</v>
+        <v>24071</v>
       </c>
     </row>
     <row r="18">
@@ -215,7 +215,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="0">
-        <v>23983</v>
+        <v>24491</v>
       </c>
     </row>
     <row r="19">
@@ -223,7 +223,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="0">
-        <v>24387</v>
+        <v>24892</v>
       </c>
     </row>
     <row r="20">
@@ -231,7 +231,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="0">
-        <v>24774</v>
+        <v>25286</v>
       </c>
     </row>
     <row r="21">
@@ -239,7 +239,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="0">
-        <v>25202</v>
+        <v>25701</v>
       </c>
     </row>
     <row r="22">
@@ -247,7 +247,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="0">
-        <v>25611</v>
+        <v>26120</v>
       </c>
     </row>
     <row r="23">
@@ -255,7 +255,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="0">
-        <v>26037</v>
+        <v>26540</v>
       </c>
     </row>
     <row r="24">
@@ -263,7 +263,7 @@
         <v>65</v>
       </c>
       <c r="B24" s="0">
-        <v>26393</v>
+        <v>26906</v>
       </c>
     </row>
     <row r="25">
@@ -271,7 +271,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="0">
-        <v>26816</v>
+        <v>27320</v>
       </c>
     </row>
     <row r="26">
@@ -279,7 +279,7 @@
         <v>75</v>
       </c>
       <c r="B26" s="0">
-        <v>27232</v>
+        <v>27733</v>
       </c>
     </row>
     <row r="27">
@@ -287,7 +287,7 @@
         <v>80</v>
       </c>
       <c r="B27" s="0">
-        <v>27632</v>
+        <v>28139</v>
       </c>
     </row>
     <row r="28">
@@ -295,7 +295,7 @@
         <v>85</v>
       </c>
       <c r="B28" s="0">
-        <v>28053</v>
+        <v>28550</v>
       </c>
     </row>
     <row r="29">
@@ -303,7 +303,7 @@
         <v>90</v>
       </c>
       <c r="B29" s="0">
-        <v>28491</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="30">
@@ -311,7 +311,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="0">
-        <v>28897</v>
+        <v>29399</v>
       </c>
     </row>
     <row r="31">
@@ -319,7 +319,7 @@
         <v>100</v>
       </c>
       <c r="B31" s="0">
-        <v>29284</v>
+        <v>29788</v>
       </c>
     </row>
     <row r="32">
@@ -327,7 +327,7 @@
         <v>105</v>
       </c>
       <c r="B32" s="0">
-        <v>29689</v>
+        <v>30196</v>
       </c>
     </row>
     <row r="33">
@@ -335,7 +335,7 @@
         <v>110</v>
       </c>
       <c r="B33" s="0">
-        <v>30121</v>
+        <v>30620</v>
       </c>
     </row>
     <row r="34">
@@ -343,7 +343,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="0">
-        <v>30534</v>
+        <v>31019</v>
       </c>
     </row>
     <row r="35">
@@ -351,7 +351,7 @@
         <v>120</v>
       </c>
       <c r="B35" s="0">
-        <v>30957</v>
+        <v>31450</v>
       </c>
     </row>
     <row r="36">
@@ -359,7 +359,7 @@
         <v>125</v>
       </c>
       <c r="B36" s="0">
-        <v>31377</v>
+        <v>31876</v>
       </c>
     </row>
     <row r="37">
@@ -367,7 +367,7 @@
         <v>130</v>
       </c>
       <c r="B37" s="0">
-        <v>31776</v>
+        <v>32278</v>
       </c>
     </row>
     <row r="38">
@@ -375,7 +375,7 @@
         <v>135</v>
       </c>
       <c r="B38" s="0">
-        <v>32180</v>
+        <v>32666</v>
       </c>
     </row>
     <row r="39">
@@ -383,7 +383,7 @@
         <v>140</v>
       </c>
       <c r="B39" s="0">
-        <v>32600</v>
+        <v>33082</v>
       </c>
     </row>
     <row r="40">
@@ -391,7 +391,7 @@
         <v>145</v>
       </c>
       <c r="B40" s="0">
-        <v>33039</v>
+        <v>33537</v>
       </c>
     </row>
     <row r="41">
@@ -399,7 +399,7 @@
         <v>150</v>
       </c>
       <c r="B41" s="0">
-        <v>33459</v>
+        <v>33944</v>
       </c>
     </row>
     <row r="42">
@@ -407,7 +407,7 @@
         <v>155</v>
       </c>
       <c r="B42" s="0">
-        <v>33847</v>
+        <v>34331</v>
       </c>
     </row>
   </sheetData>

--- a/dts_adc_ADC_count.xlsx
+++ b/dts_adc_ADC_count.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48" uniqueCount="2">
   <si>
     <t>Temperature</t>
   </si>
@@ -87,7 +87,7 @@
         <v>-45</v>
       </c>
       <c r="B2" s="0">
-        <v>18104</v>
+        <v>285441</v>
       </c>
     </row>
     <row r="3">
@@ -95,7 +95,7 @@
         <v>-40</v>
       </c>
       <c r="B3" s="0">
-        <v>18491</v>
+        <v>291690</v>
       </c>
     </row>
     <row r="4">
@@ -103,7 +103,7 @@
         <v>-35</v>
       </c>
       <c r="B4" s="0">
-        <v>18884</v>
+        <v>297917</v>
       </c>
     </row>
     <row r="5">
@@ -111,7 +111,7 @@
         <v>-30</v>
       </c>
       <c r="B5" s="0">
-        <v>19275</v>
+        <v>304137</v>
       </c>
     </row>
     <row r="6">
@@ -119,7 +119,7 @@
         <v>-25</v>
       </c>
       <c r="B6" s="0">
-        <v>19668</v>
+        <v>310564</v>
       </c>
     </row>
     <row r="7">
@@ -127,7 +127,7 @@
         <v>-20</v>
       </c>
       <c r="B7" s="0">
-        <v>20059</v>
+        <v>316736</v>
       </c>
     </row>
     <row r="8">
@@ -135,7 +135,7 @@
         <v>-15</v>
       </c>
       <c r="B8" s="0">
-        <v>20441</v>
+        <v>322881</v>
       </c>
     </row>
     <row r="9">
@@ -143,7 +143,7 @@
         <v>-10</v>
       </c>
       <c r="B9" s="0">
-        <v>20879</v>
+        <v>329856</v>
       </c>
     </row>
     <row r="10">
@@ -151,7 +151,7 @@
         <v>-5</v>
       </c>
       <c r="B10" s="0">
-        <v>21252</v>
+        <v>335978</v>
       </c>
     </row>
     <row r="11">
@@ -159,7 +159,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="0">
-        <v>21635</v>
+        <v>342071</v>
       </c>
     </row>
     <row r="12">
@@ -167,7 +167,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0">
-        <v>22073</v>
+        <v>348949</v>
       </c>
     </row>
     <row r="13">
@@ -175,7 +175,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="0">
-        <v>22462</v>
+        <v>355302</v>
       </c>
     </row>
     <row r="14">
@@ -183,7 +183,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="0">
-        <v>22878</v>
+        <v>361879</v>
       </c>
     </row>
     <row r="15">
@@ -191,7 +191,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="0">
-        <v>23270</v>
+        <v>368191</v>
       </c>
     </row>
     <row r="16">
@@ -199,7 +199,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="0">
-        <v>23674</v>
+        <v>374728</v>
       </c>
     </row>
     <row r="17">
@@ -207,7 +207,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="0">
-        <v>24071</v>
+        <v>381001</v>
       </c>
     </row>
     <row r="18">
@@ -215,7 +215,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="0">
-        <v>24491</v>
+        <v>387790</v>
       </c>
     </row>
     <row r="19">
@@ -223,7 +223,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="0">
-        <v>24892</v>
+        <v>394240</v>
       </c>
     </row>
     <row r="20">
@@ -231,7 +231,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="0">
-        <v>25286</v>
+        <v>400466</v>
       </c>
     </row>
     <row r="21">
@@ -239,7 +239,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="0">
-        <v>25701</v>
+        <v>407200</v>
       </c>
     </row>
     <row r="22">
@@ -247,7 +247,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="0">
-        <v>26120</v>
+        <v>413893</v>
       </c>
     </row>
     <row r="23">
@@ -255,7 +255,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="0">
-        <v>26540</v>
+        <v>420569</v>
       </c>
     </row>
     <row r="24">
@@ -263,7 +263,7 @@
         <v>65</v>
       </c>
       <c r="B24" s="0">
-        <v>26906</v>
+        <v>426415</v>
       </c>
     </row>
     <row r="25">
@@ -271,7 +271,7 @@
         <v>70</v>
       </c>
       <c r="B25" s="0">
-        <v>27320</v>
+        <v>433060</v>
       </c>
     </row>
     <row r="26">
@@ -279,7 +279,7 @@
         <v>75</v>
       </c>
       <c r="B26" s="0">
-        <v>27733</v>
+        <v>439681</v>
       </c>
     </row>
     <row r="27">
@@ -287,7 +287,7 @@
         <v>80</v>
       </c>
       <c r="B27" s="0">
-        <v>28139</v>
+        <v>446274</v>
       </c>
     </row>
     <row r="28">
@@ -295,7 +295,7 @@
         <v>85</v>
       </c>
       <c r="B28" s="0">
-        <v>28550</v>
+        <v>452845</v>
       </c>
     </row>
     <row r="29">
@@ -303,7 +303,7 @@
         <v>90</v>
       </c>
       <c r="B29" s="0">
-        <v>29000</v>
+        <v>459855</v>
       </c>
     </row>
     <row r="30">
@@ -311,7 +311,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="0">
-        <v>29399</v>
+        <v>466392</v>
       </c>
     </row>
     <row r="31">
@@ -319,7 +319,7 @@
         <v>100</v>
       </c>
       <c r="B31" s="0">
-        <v>29788</v>
+        <v>472540</v>
       </c>
     </row>
     <row r="32">
@@ -327,7 +327,7 @@
         <v>105</v>
       </c>
       <c r="B32" s="0">
-        <v>30196</v>
+        <v>479032</v>
       </c>
     </row>
     <row r="33">
@@ -335,7 +335,7 @@
         <v>110</v>
       </c>
       <c r="B33" s="0">
-        <v>30620</v>
+        <v>485934</v>
       </c>
     </row>
     <row r="34">
@@ -343,7 +343,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="0">
-        <v>31019</v>
+        <v>492378</v>
       </c>
     </row>
     <row r="35">
@@ -351,7 +351,7 @@
         <v>120</v>
       </c>
       <c r="B35" s="0">
-        <v>31450</v>
+        <v>499206</v>
       </c>
     </row>
     <row r="36">
@@ -359,7 +359,7 @@
         <v>125</v>
       </c>
       <c r="B36" s="0">
-        <v>31876</v>
+        <v>506013</v>
       </c>
     </row>
     <row r="37">
@@ -367,7 +367,7 @@
         <v>130</v>
       </c>
       <c r="B37" s="0">
-        <v>32278</v>
+        <v>512390</v>
       </c>
     </row>
     <row r="38">
@@ -375,7 +375,7 @@
         <v>135</v>
       </c>
       <c r="B38" s="0">
-        <v>32666</v>
+        <v>518751</v>
       </c>
     </row>
     <row r="39">
@@ -383,7 +383,7 @@
         <v>140</v>
       </c>
       <c r="B39" s="0">
-        <v>33082</v>
+        <v>525455</v>
       </c>
     </row>
     <row r="40">
@@ -391,7 +391,7 @@
         <v>145</v>
       </c>
       <c r="B40" s="0">
-        <v>33537</v>
+        <v>532539</v>
       </c>
     </row>
     <row r="41">
@@ -399,7 +399,7 @@
         <v>150</v>
       </c>
       <c r="B41" s="0">
-        <v>33944</v>
+        <v>539199</v>
       </c>
     </row>
     <row r="42">
@@ -407,7 +407,7 @@
         <v>155</v>
       </c>
       <c r="B42" s="0">
-        <v>34331</v>
+        <v>545409</v>
       </c>
     </row>
   </sheetData>
